--- a/mobi_client/mobi_client/mobi_config/excel/0000_测试专用表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/0000_测试专用表.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAF0209-3408-45CC-A40B-872918620726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0250EB-B0C0-44F7-A7D1-BB87E4D84374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24900" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigCheck1" sheetId="1" r:id="rId1"/>
@@ -473,10 +473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:XFD4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/mobi_client/mobi_client/mobi_config/excel/0000_测试专用表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/0000_测试专用表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0250EB-B0C0-44F7-A7D1-BB87E4D84374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D89AB2-E047-4732-BD64-6A75E7649DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24900" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23250" yWindow="1755" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigCheck1" sheetId="1" r:id="rId1"/>
